--- a/testFile/test_data.xlsx
+++ b/testFile/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\songshien\PycharmProjects\ese\testFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECE9BAD-E1C2-48BA-9A94-7EE5E5A7AD8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51DD926-A8A0-4945-A923-8468ECD29109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4380" xr2:uid="{FD16C34B-EA0D-4EA9-907F-9AB37FEA0B02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4380" activeTab="4" xr2:uid="{FD16C34B-EA0D-4EA9-907F-9AB37FEA0B02}"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5CE0AD-1426-473E-843B-BF26B2CAB073}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE55ABA3-4567-4907-82B1-4DFB36ED23A0}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/testFile/test_data.xlsx
+++ b/testFile/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git download\ese_auto_test_1.6\testFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2CC0B9-1CD7-4888-A6C1-E6EB858FB3E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F009D886-8465-4AA7-9B76-D51248A381DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4380" activeTab="1" xr2:uid="{FD16C34B-EA0D-4EA9-907F-9AB37FEA0B02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4380" activeTab="2" xr2:uid="{FD16C34B-EA0D-4EA9-907F-9AB37FEA0B02}"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="case5" sheetId="5" r:id="rId5"/>
     <sheet name="case6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>ese_length</t>
   </si>
@@ -58,18 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ese_item_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ese_quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ese_total_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ese_shipper_contactname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ese_shipper_town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ese_shipper_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,14 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ese_receiver_town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ese_receiver_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ese_receiver_email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ese_item_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ese_item_details</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发货人地址英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECMS UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Address 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>songshien@ecmsglobal.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +315,34 @@
   </si>
   <si>
     <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECMS US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US CITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>567 890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国到英国。匿名登录.多内件.不上传发票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,94 +819,94 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -968,13 +960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856B031-F115-4EB6-AF57-030DE6C1C69C}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
@@ -1033,221 +1025,117 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="O2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{3D1AA743-B2C8-44AA-B863-C7AED94C3FB3}"/>
-    <hyperlink ref="Y2" r:id="rId2" xr:uid="{3C6394BE-49B8-4388-B71D-FDB411E736C9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BD23FA-309C-4613-8547-1B93472A0B79}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
@@ -1275,7 +1163,7 @@
     <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1298,25 +1186,25 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -1334,62 +1222,180 @@
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="AE2" s="4"/>
-    </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{73D9EDEC-6425-472E-99FA-DC7564A363CE}"/>
+    <hyperlink ref="Y2" r:id="rId2" xr:uid="{4D119E84-A1AC-406C-B64E-A1EB8728859E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1437,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1507,25 +1513,25 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1586,25 +1592,25 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
